--- a/File Thống Kê/ThongKe.xlsx
+++ b/File Thống Kê/ThongKe.xlsx
@@ -13,12 +13,16 @@
     <sheet name="Sheet(30-07-2024 06-15-19)" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet(30-07-2024 08-23-27)" sheetId="6" r:id="rId8"/>
     <sheet name="Sheet(30-07-2024 08-25-48)" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet(01-08-2024 02-44-43)" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet(01-08-2024 02-55-32)" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet(01-08-2024 02-55-47)" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet(01-08-2024 03-03-46)" sheetId="11" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="56">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -180,6 +184,12 @@
   </si>
   <si>
     <t xml:space="preserve">960000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240000.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960000.0000</t>
   </si>
 </sst>
 </file>
@@ -331,6 +341,448 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:K7"/>
@@ -1623,4 +2075,382 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>